--- a/Documents/Dictionnaire de Données Campus Contest.xlsx
+++ b/Documents/Dictionnaire de Données Campus Contest.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\campus-contest\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5325C638-C306-4677-8B59-9F0B26DEC641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCCA43B-9EFF-4582-B2F3-A1AE8A547421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,102 +20,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>ID/Classe</t>
-  </si>
-  <si>
-    <t>Fonction</t>
-  </si>
-  <si>
-    <t>#header</t>
-  </si>
-  <si>
-    <t>maintient le bloc en haut de la page</t>
-  </si>
-  <si>
-    <t>#logo</t>
-  </si>
-  <si>
-    <t>défini la taille de l'image et les marges</t>
-  </si>
-  <si>
-    <t>#menu</t>
-  </si>
-  <si>
-    <t>garde les différents éléments alignés</t>
-  </si>
-  <si>
-    <t>.ubuntu</t>
-  </si>
-  <si>
-    <t>permet d'utiliser la police "ubuntu"</t>
-  </si>
-  <si>
-    <t>#footer</t>
-  </si>
-  <si>
-    <t>défini la taille du footer et la couleur de son fond</t>
-  </si>
-  <si>
-    <t>#logofooter</t>
-  </si>
-  <si>
-    <t>défini la taille et la position du logo sur le footer</t>
-  </si>
-  <si>
-    <t>#linkedin</t>
-  </si>
-  <si>
-    <t>défini la taille et la position du logo linkedin sur le footer</t>
-  </si>
-  <si>
-    <t>#competences</t>
-  </si>
-  <si>
-    <t>défini la position et la taille de la liste de compétences</t>
-  </si>
-  <si>
-    <t>#mail</t>
-  </si>
-  <si>
-    <t>défini la position du format d'envoi de mail</t>
-  </si>
-  <si>
-    <t>#biographie</t>
-  </si>
-  <si>
-    <t>défini la couleur et la position du bloc de la biographie</t>
-  </si>
-  <si>
-    <t>.formulaire</t>
-  </si>
-  <si>
-    <t>sert a appliquer une bordure arrondie au formulaire</t>
-  </si>
-  <si>
-    <t>#nom et #email</t>
-  </si>
-  <si>
-    <t>ajuste la position du formulaire de nom et d'email</t>
-  </si>
-  <si>
-    <t>#campusacademy</t>
-  </si>
-  <si>
-    <t>ajuste la position du logo campus academy</t>
-  </si>
-  <si>
-    <t>.Lightblue</t>
-  </si>
-  <si>
-    <t>défini la couleur du texte</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>id_utilisateur</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Signification</t>
+  </si>
+  <si>
+    <t>exemple</t>
+  </si>
+  <si>
+    <t>l'id appartenant a l'utilisateur</t>
+  </si>
+  <si>
+    <t>nom et prénom</t>
+  </si>
+  <si>
+    <t>nom et prénom de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Dupont Pierre</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>adresse mail de l'utilisateur</t>
+  </si>
+  <si>
+    <t>utilisateur@gmail.com</t>
+  </si>
+  <si>
+    <t>message laissé par l'utilisateur</t>
+  </si>
+  <si>
+    <t>bonjour</t>
+  </si>
+  <si>
+    <t>id_message</t>
+  </si>
+  <si>
+    <t>l'id appartenant au message d'un utilisateur</t>
+  </si>
+  <si>
+    <t>contenu</t>
+  </si>
+  <si>
+    <t>contenu du message</t>
+  </si>
+  <si>
+    <t>je voudrais vous contacter</t>
+  </si>
+  <si>
+    <t>email_formulaire</t>
+  </si>
+  <si>
+    <t>email du formulaire (saisi par l'utilisateur)</t>
+  </si>
+  <si>
+    <t>user@hotmail.fr</t>
+  </si>
+  <si>
+    <t>nom_prenom_formulaire</t>
+  </si>
+  <si>
+    <t>nom et prénom de l'utilisateur dans le formulaire</t>
+  </si>
+  <si>
+    <t>Jean-Pierre Polnareff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,7 +109,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,6 +128,12 @@
         <bgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -156,25 +147,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,242 +483,245 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+    </row>
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="9" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+    <row r="10" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
-      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="4"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="4"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="4"/>
+      <c r="C42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
